--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H2">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N2">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O2">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P2">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q2">
-        <v>322.2437469536235</v>
+        <v>330.5925789218336</v>
       </c>
       <c r="R2">
-        <v>322.2437469536235</v>
+        <v>2975.333210296503</v>
       </c>
       <c r="S2">
-        <v>0.04709197829491025</v>
+        <v>0.0433554919082382</v>
       </c>
       <c r="T2">
-        <v>0.04709197829491025</v>
+        <v>0.0433554919082382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H3">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N3">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O3">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P3">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q3">
-        <v>545.6688670898003</v>
+        <v>549.6635458782304</v>
       </c>
       <c r="R3">
-        <v>545.6688670898003</v>
+        <v>4946.971912904073</v>
       </c>
       <c r="S3">
-        <v>0.0797428241451628</v>
+        <v>0.07208550625454842</v>
       </c>
       <c r="T3">
-        <v>0.0797428241451628</v>
+        <v>0.07208550625454842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H4">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N4">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O4">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P4">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q4">
-        <v>486.1537999363792</v>
+        <v>560.1311512607039</v>
       </c>
       <c r="R4">
-        <v>486.1537999363792</v>
+        <v>5041.180361346335</v>
       </c>
       <c r="S4">
-        <v>0.07104542574067992</v>
+        <v>0.07345827808729355</v>
       </c>
       <c r="T4">
-        <v>0.07104542574067992</v>
+        <v>0.07345827808729354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H5">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N5">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O5">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P5">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q5">
-        <v>192.3490929867059</v>
+        <v>210.9134923881833</v>
       </c>
       <c r="R5">
-        <v>192.3490929867059</v>
+        <v>1898.22143149365</v>
       </c>
       <c r="S5">
-        <v>0.02810946495504611</v>
+        <v>0.02766020411709313</v>
       </c>
       <c r="T5">
-        <v>0.02810946495504611</v>
+        <v>0.02766020411709313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H6">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N6">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O6">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P6">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q6">
-        <v>487.0218053212319</v>
+        <v>496.3136232354161</v>
       </c>
       <c r="R6">
-        <v>487.0218053212319</v>
+        <v>4466.822609118744</v>
       </c>
       <c r="S6">
-        <v>0.07117227410043794</v>
+        <v>0.06508894224518944</v>
       </c>
       <c r="T6">
-        <v>0.07117227410043794</v>
+        <v>0.06508894224518944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H7">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N7">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O7">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P7">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q7">
-        <v>824.6944720262092</v>
+        <v>825.2015423484562</v>
       </c>
       <c r="R7">
-        <v>824.6944720262092</v>
+        <v>7426.813881136106</v>
       </c>
       <c r="S7">
-        <v>0.1205190001163311</v>
+        <v>0.1082208769133121</v>
       </c>
       <c r="T7">
-        <v>0.1205190001163311</v>
+        <v>0.1082208769133121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H8">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N8">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O8">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P8">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q8">
-        <v>734.7466119889282</v>
+        <v>840.916399502592</v>
       </c>
       <c r="R8">
-        <v>734.7466119889282</v>
+        <v>7568.247595523328</v>
       </c>
       <c r="S8">
-        <v>0.1073742216292597</v>
+        <v>0.110281798439159</v>
       </c>
       <c r="T8">
-        <v>0.1073742216292597</v>
+        <v>0.110281798439159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H9">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N9">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O9">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P9">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q9">
-        <v>290.7060366690961</v>
+        <v>316.6412263028</v>
       </c>
       <c r="R9">
-        <v>290.7060366690961</v>
+        <v>2849.7710367252</v>
       </c>
       <c r="S9">
-        <v>0.04248312806203396</v>
+        <v>0.04152584480134865</v>
       </c>
       <c r="T9">
-        <v>0.04248312806203396</v>
+        <v>0.04152584480134863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H10">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N10">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O10">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P10">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q10">
-        <v>433.43804834746</v>
+        <v>494.2693551122024</v>
       </c>
       <c r="R10">
-        <v>433.43804834746</v>
+        <v>4448.424196009822</v>
       </c>
       <c r="S10">
-        <v>0.06334166405998379</v>
+        <v>0.0648208471464933</v>
       </c>
       <c r="T10">
-        <v>0.06334166405998379</v>
+        <v>0.0648208471464933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H11">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N11">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O11">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P11">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q11">
-        <v>733.9588464672706</v>
+        <v>821.8026164893337</v>
       </c>
       <c r="R11">
-        <v>733.9588464672706</v>
+        <v>7396.223548404003</v>
       </c>
       <c r="S11">
-        <v>0.107259099343108</v>
+        <v>0.1077751255202757</v>
       </c>
       <c r="T11">
-        <v>0.107259099343108</v>
+        <v>0.1077751255202757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H12">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N12">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O12">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P12">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q12">
-        <v>653.9073488102522</v>
+        <v>837.4527456568959</v>
       </c>
       <c r="R12">
-        <v>653.9073488102522</v>
+        <v>7537.074710912064</v>
       </c>
       <c r="S12">
-        <v>0.09556055305391686</v>
+        <v>0.1098275583083921</v>
       </c>
       <c r="T12">
-        <v>0.09556055305391686</v>
+        <v>0.1098275583083921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H13">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N13">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O13">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P13">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q13">
-        <v>258.7215927499766</v>
+        <v>315.3370115177889</v>
       </c>
       <c r="R13">
-        <v>258.7215927499766</v>
+        <v>2838.0331036601</v>
       </c>
       <c r="S13">
-        <v>0.03780899317794972</v>
+        <v>0.04135480383684011</v>
       </c>
       <c r="T13">
-        <v>0.03780899317794972</v>
+        <v>0.0413548038368401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H14">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N14">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O14">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P14">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q14">
-        <v>183.2187168171113</v>
+        <v>205.391547349191</v>
       </c>
       <c r="R14">
-        <v>183.2187168171113</v>
+        <v>1848.523926142719</v>
       </c>
       <c r="S14">
-        <v>0.02677517226366677</v>
+        <v>0.02693602983515206</v>
       </c>
       <c r="T14">
-        <v>0.02677517226366677</v>
+        <v>0.02693602983515206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H15">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N15">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O15">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P15">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q15">
-        <v>310.2519461754783</v>
+        <v>341.4966136794811</v>
       </c>
       <c r="R15">
-        <v>310.2519461754783</v>
+        <v>3073.46952311533</v>
       </c>
       <c r="S15">
-        <v>0.04533952343023114</v>
+        <v>0.04478549917653235</v>
       </c>
       <c r="T15">
-        <v>0.04533952343023114</v>
+        <v>0.04478549917653235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H16">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N16">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O16">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P16">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q16">
-        <v>276.4133555489135</v>
+        <v>347.999958895392</v>
       </c>
       <c r="R16">
-        <v>276.4133555489135</v>
+        <v>3131.999630058528</v>
       </c>
       <c r="S16">
-        <v>0.04039442770570222</v>
+        <v>0.04563837897136758</v>
       </c>
       <c r="T16">
-        <v>0.04039442770570222</v>
+        <v>0.04563837897136759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H17">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N17">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O17">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P17">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q17">
-        <v>109.3642757419631</v>
+        <v>131.03696610405</v>
       </c>
       <c r="R17">
-        <v>109.3642757419631</v>
+        <v>1179.33269493645</v>
       </c>
       <c r="S17">
-        <v>0.01598224992157973</v>
+        <v>0.01718481443876421</v>
       </c>
       <c r="T17">
-        <v>0.01598224992157973</v>
+        <v>0.01718481443876421</v>
       </c>
     </row>
   </sheetData>
